--- a/PBLSEM4/public/template_admin.xlsx
+++ b/PBLSEM4/public/template_admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Polinema\STUDI KAMPUS\SEMESTER 4\WEB\PBLSEM4\PBLSEM4\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DFA132C-CD04-4121-B4D8-B202E42291BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CB2A02-713B-4D33-8F2E-9009CE5A220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3313A6F4-854B-4550-A272-88632E1A454B}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9307" xr2:uid="{3313A6F4-854B-4550-A272-88632E1A454B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>admin_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>admin_nama</t>
   </si>
@@ -409,49 +406,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107ABA6C-0BB5-4B71-9CF1-9DC9A9DA659A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>812345678</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>812345678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
         <v>812345678</v>
       </c>
     </row>
